--- a/biology/Biologie cellulaire et moléculaire/Milieu_extracellulaire/Milieu_extracellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Milieu_extracellulaire/Milieu_extracellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, le milieu extracellulaire correspond à l'extérieur de la cellule. L'extérieur peut correspondre à l'environnement en général pour une bactérie du sol, l'intestin pour une entérobactérie, l'espace entre les cellules pour les cellules faisant partie d'un tissu.
 Par exemple, la paroi d'une cellule est une structure extracellulaire. Le milieu extracellulaire correspond au contraire du milieu intracellulaire.
